--- a/Wine_Quality/outputs/train_60_test_40/depth_None/wq_train_60_test_40_depth_None_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_None/wq_train_60_test_40_depth_None_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.163265306122449</v>
+        <v>0.5577299412915852</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1767955801104972</v>
+        <v>0.5465004793863855</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8614061709661103</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8557788944723618</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8585833123266953</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>1990</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5769944341372912</v>
+        <v>0.852002027369488</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6086105675146771</v>
+        <v>0.8447236180904523</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5923809523809523</v>
+        <v>0.8483472117083017</v>
       </c>
       <c r="E4" t="n">
-        <v>511</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7810696421700654</v>
+        <v>0.7641400538668719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7810696421700654</v>
+        <v>0.7641400538668719</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7810696421700654</v>
+        <v>0.7641400538668719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7810696421700654</v>
+        <v>0.7641400538668719</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5437238964802503</v>
+        <v>0.5334940901768608</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5425515893698293</v>
+        <v>0.5355117306783662</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5425866149393817</v>
+        <v>0.5343936748093402</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7802747219437381</v>
+        <v>0.765711850055817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7810696421700654</v>
+        <v>0.7641400538668719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7805361389178989</v>
+        <v>0.7648670115169797</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>

--- a/Wine_Quality/outputs/train_60_test_40/depth_None/wq_train_60_test_40_depth_None_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_None/wq_train_60_test_40_depth_None_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.54</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5577299412915852</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5465004793863855</v>
+        <v>0.55</v>
       </c>
       <c r="E2" t="n">
         <v>511</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2127659574468085</v>
+        <v>0.21</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2040816326530612</v>
+        <v>0.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.21</v>
       </c>
       <c r="E3" t="n">
         <v>98</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.852002027369488</v>
+        <v>0.85</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8447236180904523</v>
+        <v>0.84</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8483472117083017</v>
+        <v>0.85</v>
       </c>
       <c r="E4" t="n">
         <v>1990</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7641400538668719</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7641400538668719</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7641400538668719</v>
+        <v>0.76</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7641400538668719</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5334940901768608</v>
+        <v>0.53</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5355117306783662</v>
+        <v>0.54</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5343936748093402</v>
+        <v>0.53</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.765711850055817</v>
+        <v>0.77</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7641400538668719</v>
+        <v>0.76</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7648670115169797</v>
+        <v>0.76</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>
